--- a/bh3/503845319326783795_2021-03-19_18-17-10.xlsx
+++ b/bh3/503845319326783795_2021-03-19_18-17-10.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -546,10 +562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:20:54</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44302.76451388889</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -621,10 +635,8 @@
           <t>4307470263</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:57:56</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44278.95689814815</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -713,10 +725,8 @@
           <t>4307463605</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-23 22:57:44</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44278.95675925926</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -793,10 +803,8 @@
           <t>4299593570</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-22 00:48:27</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44277.03364583333</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -872,10 +880,8 @@
           <t>4295240515</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-21 08:03:19</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44276.33563657408</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -947,10 +953,8 @@
           <t>4295228688</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-21 08:00:38</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44276.33377314815</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1022,10 +1026,8 @@
           <t>4294142434</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-20 23:12:05</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44275.96672453704</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1100,10 +1102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-20 21:16:47</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44275.8866550926</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1171,10 +1171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:18:01</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44275.84584490741</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1250,10 +1248,8 @@
           <t>4293174095</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-20 20:17:15</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44275.8453125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1317,10 +1313,8 @@
           <t>4292534280</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:15:13</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44275.76056712963</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1396,10 +1390,8 @@
           <t>4292491330</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:05:47</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44275.7540162037</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1463,10 +1455,8 @@
           <t>4292219930</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:10:55</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44275.71591435185</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1534,10 +1524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:03:43</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44275.71091435185</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1609,10 +1597,8 @@
           <t>4292047522</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:28:20</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44275.68634259259</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1684,10 +1670,8 @@
           <t>4292042682</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-20 16:27:26</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44275.68571759259</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1759,10 +1743,8 @@
           <t>4291853997</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:39:51</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44275.65267361111</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1838,10 +1820,8 @@
           <t>4291798526</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:27:15</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44275.64392361111</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1913,10 +1893,8 @@
           <t>4291798412</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-20 15:27:10</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44275.64386574074</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1988,10 +1966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:28:11</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44275.60290509259</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2059,10 +2035,8 @@
           <t>4287742114</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:14:19</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44275.59327546296</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2134,10 +2108,8 @@
           <t>4291352047</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:31:32</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44275.56356481482</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2213,10 +2185,8 @@
           <t>4288044449</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:53:30</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44275.53715277778</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2292,10 +2262,8 @@
           <t>4288044449</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:44:18</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44275.53076388889</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2359,10 +2327,8 @@
           <t>4288044449</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:31:00</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44275.52152777778</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2438,10 +2404,8 @@
           <t>4290953892</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-20 12:11:40</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44275.50810185185</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2501,10 +2465,8 @@
           <t>4288044449</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-20 11:44:36</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44275.48930555556</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2580,10 +2542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-20 11:40:32</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44275.48648148148</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2652,10 +2612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-20 10:54:17</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44275.45436342592</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2731,10 +2689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-20 10:53:29</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44275.45380787037</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2810,10 +2766,8 @@
           <t>4290470151</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-20 10:18:30</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44275.42951388889</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2877,10 +2831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-20 09:59:07</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44275.41605324074</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2948,10 +2900,8 @@
           <t>4288627995</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-20 09:55:39</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44275.41364583333</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3015,10 +2965,8 @@
           <t>4290276629</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-20 09:26:11</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44275.39318287037</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3090,10 +3038,8 @@
           <t>4290200712</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-20 09:01:22</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44275.37594907408</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3153,10 +3099,8 @@
           <t>4290189064</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-20 08:59:41</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44275.37478009259</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
@@ -3216,10 +3160,8 @@
           <t>4290092882</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-20 08:21:09</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44275.34802083333</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3295,10 +3237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-20 08:20:36</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44275.34763888889</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3366,10 +3306,8 @@
           <t>4290068652</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-20 08:10:59</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44275.34096064815</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3457,10 +3395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-20 08:01:18</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44275.33423611111</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3524,10 +3460,8 @@
           <t>4290027906</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-20 07:48:26</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44275.32530092593</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3595,10 +3529,8 @@
           <t>4289772484</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-20 07:45:29</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44275.32325231482</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3666,10 +3598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-20 07:34:06</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44275.31534722223</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3737,10 +3667,8 @@
           <t>4289980904</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-20 07:16:06</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44275.30284722222</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3804,10 +3732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-20 06:56:15</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44275.2890625</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3867,10 +3793,8 @@
           <t>4289904376</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-20 05:59:44</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44275.24981481482</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3932,10 +3856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-20 05:59:22</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44275.24956018518</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
@@ -3995,10 +3917,8 @@
           <t>4289884404</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-20 05:29:45</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44275.22899305556</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4074,10 +3994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-20 05:24:49</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44275.22556712963</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4153,10 +4071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-20 05:06:01</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44275.21251157407</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4224,10 +4140,8 @@
           <t>4289823798</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-20 03:47:49</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44275.15820601852</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4295,10 +4209,8 @@
           <t>4288627995</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-20 03:32:53</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44275.14783564815</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4370,10 +4282,8 @@
           <t>4289772484</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-20 02:54:43</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44275.12133101852</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4441,10 +4351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-20 02:50:18</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44275.11826388889</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4508,10 +4416,8 @@
           <t>4289733812</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-20 02:26:59</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44275.10207175926</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4579,10 +4485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-20 01:47:13</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44275.07445601852</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4646,10 +4550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-20 01:29:13</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44275.06195601852</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4725,10 +4627,8 @@
           <t>4287766204</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-20 01:21:09</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44275.05635416666</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4796,10 +4696,8 @@
           <t>4287562049</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-20 01:20:19</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44275.05577546296</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4875,10 +4773,8 @@
           <t>4289574817</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-20 01:18:20</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44275.05439814815</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4946,10 +4842,8 @@
           <t>4289524096</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-20 01:00:34</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44275.04206018519</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5022,10 +4916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-20 00:58:43</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44275.04077546296</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5093,10 +4985,8 @@
           <t>4287889672</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-20 00:58:33</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44275.04065972222</v>
       </c>
       <c r="I64" t="n">
         <v>2</v>
@@ -5169,10 +5059,8 @@
           <t>4289520142</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-20 00:57:02</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44275.03960648148</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5245,10 +5133,8 @@
           <t>4289481831</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-20 00:48:38</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44275.03377314815</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5320,10 +5206,8 @@
           <t>4289455646</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-20 00:40:56</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44275.02842592593</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5395,10 +5279,8 @@
           <t>4288044449</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-20 00:32:52</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44275.02282407408</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5474,10 +5356,8 @@
           <t>4289409601</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-20 00:31:50</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44275.02210648148</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5541,10 +5421,8 @@
           <t>4288557282</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-20 00:31:27</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44275.02184027778</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5608,10 +5486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-20 00:30:23</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44275.02109953704</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5675,10 +5551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-20 00:27:53</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44275.01936342593</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5746,10 +5620,8 @@
           <t>4287995203</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-20 00:27:21</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44275.01899305556</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5825,10 +5697,8 @@
           <t>4289296558</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-20 00:04:50</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44275.00335648148</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5905,10 +5775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-20 00:03:31</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44275.00244212963</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5972,10 +5840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:49:08</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44274.9924537037</v>
       </c>
       <c r="I76" t="n">
         <v>13</v>
@@ -6051,10 +5917,8 @@
           <t>4289191748</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:44:53</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44274.98950231481</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6118,10 +5982,8 @@
           <t>4289180321</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:42:19</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44274.98771990741</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6193,10 +6055,8 @@
           <t>4288627995</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:36:52</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44274.98393518518</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6268,10 +6128,8 @@
           <t>4287934006</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:35:03</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44274.98267361111</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6343,10 +6201,8 @@
           <t>4288871830</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:33:38</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44274.98168981481</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6414,10 +6270,8 @@
           <t>4289121309</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:31:28</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44274.98018518519</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6493,10 +6347,8 @@
           <t>4289101689</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:28:54</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44274.97840277778</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6574,10 +6426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:26:33</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44274.97677083333</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6641,10 +6491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:20:28</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44274.9725462963</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6704,10 +6552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:18:10</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44274.97094907407</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6767,10 +6613,8 @@
           <t>4288557282</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:15:38</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44274.96918981482</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6838,10 +6682,8 @@
           <t>4288994983</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:10:29</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44274.96561342593</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6913,10 +6755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:08:38</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44274.9643287037</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6980,10 +6820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:08:04</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44274.96393518519</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7055,10 +6893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-19 23:06:18</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44274.96270833333</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7134,10 +6970,8 @@
           <t>4288896942</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:51:50</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44274.95266203704</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7205,10 +7039,8 @@
           <t>4288886765</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:50:37</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44274.95181712963</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7276,10 +7108,8 @@
           <t>4288871830</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:47:54</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44274.94993055556</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7343,10 +7173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:45:19</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44274.94813657407</v>
       </c>
       <c r="I95" t="n">
         <v>51</v>
@@ -7414,10 +7242,8 @@
           <t>4288838301</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:41:48</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44274.94569444445</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7490,10 +7316,8 @@
           <t>4288832299</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:41:15</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44274.9453125</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7557,10 +7381,8 @@
           <t>4288044449</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:40:06</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44274.94451388889</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7636,10 +7458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:28:57</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44274.93677083333</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7703,10 +7523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:28:06</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44274.93618055555</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7782,10 +7600,8 @@
           <t>4287805253</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:22:59</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44274.93262731482</v>
       </c>
       <c r="I101" t="n">
         <v>5</v>
@@ -7861,10 +7677,8 @@
           <t>4288715911</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:20:03</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44274.93059027778</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7936,10 +7750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:18:03</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44274.92920138889</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8007,10 +7819,8 @@
           <t>4288695798</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:16:32</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44274.92814814814</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8078,10 +7888,8 @@
           <t>4288389814</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:14:36</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44274.92680555556</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8157,10 +7965,8 @@
           <t>4287995203</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:11:50</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44274.92488425926</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8236,10 +8042,8 @@
           <t>4288637807</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:06:37</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44274.92126157408</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8307,10 +8111,8 @@
           <t>4287482328</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:05:28</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44274.92046296296</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8378,10 +8180,8 @@
           <t>4288627995</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:04:23</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44274.91971064815</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8449,10 +8249,8 @@
           <t>4288619244</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-19 22:03:20</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44274.91898148148</v>
       </c>
       <c r="I110" t="n">
         <v>4</v>
@@ -8528,10 +8326,8 @@
           <t>4288389814</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:56:51</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44274.91447916667</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8607,10 +8403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:52:42</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44274.91159722222</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8682,10 +8476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:52:02</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44274.91113425926</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8753,10 +8545,8 @@
           <t>4288557282</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:51:09</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44274.91052083333</v>
       </c>
       <c r="I114" t="n">
         <v>7</v>
@@ -8834,10 +8624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:50:59</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44274.9104050926</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8910,10 +8698,8 @@
           <t>4288204207</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:49:20</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44274.90925925926</v>
       </c>
       <c r="I116" t="n">
         <v>3</v>
@@ -8981,10 +8767,8 @@
           <t>4288545442</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:47:45</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44274.90815972222</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9052,10 +8836,8 @@
           <t>4288380110</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:47:39</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44274.90809027778</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9127,10 +8909,8 @@
           <t>4288095403</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:46:57</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44274.90760416666</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9206,10 +8986,8 @@
           <t>4288511695</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:42:25</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44274.90445601852</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9277,10 +9055,8 @@
           <t>4288507832</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:40:25</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44274.90306712963</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9348,10 +9124,8 @@
           <t>4288496553</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:39:37</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44274.90251157407</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9427,10 +9201,8 @@
           <t>4287466622</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:39:30</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44274.90243055556</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9502,10 +9274,8 @@
           <t>4288440415</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:39:24</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44274.90236111111</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9581,10 +9351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:36:08</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44274.90009259259</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9648,10 +9416,8 @@
           <t>4288490278</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:36:05</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44274.90005787037</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9727,10 +9493,8 @@
           <t>4288440415</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:27:32</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44274.89412037037</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9798,10 +9562,8 @@
           <t>4287872652</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:23:36</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44274.89138888889</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9873,10 +9635,8 @@
           <t>4288095403</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:21:32</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44274.88995370371</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9952,10 +9712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:20:20</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44274.88912037037</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10027,10 +9785,8 @@
           <t>4288389814</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:19:05</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44274.88825231481</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10102,10 +9858,8 @@
           <t>4288095403</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:17:11</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44274.88693287037</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10181,10 +9935,8 @@
           <t>4288380110</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:15:26</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44274.8857175926</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10248,10 +10000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:14:34</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44274.88511574074</v>
       </c>
       <c r="I134" t="n">
         <v>5</v>
@@ -10328,10 +10078,8 @@
           <t>4288353554</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:11:44</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44274.88314814815</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10407,10 +10155,8 @@
           <t>4288343009</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:09:38</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44274.88168981481</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10474,10 +10220,8 @@
           <t>4288325265</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:05:16</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44274.8786574074</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10553,10 +10297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:04:54</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44274.87840277778</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10632,10 +10374,8 @@
           <t>4288204207</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:03:49</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44274.87765046296</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10707,10 +10447,8 @@
           <t>4288235833</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:03:22</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44274.87733796296</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10782,10 +10520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:03:12</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44274.87722222223</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10861,10 +10597,8 @@
           <t>4288095403</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:02:39</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44274.87684027778</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10936,10 +10670,8 @@
           <t>4287667760</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:00:47</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44274.87554398148</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11015,10 +10747,8 @@
           <t>4288283450</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:58:52</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44274.87421296296</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11090,10 +10820,8 @@
           <t>4288279995</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:58:11</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44274.87373842593</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11153,10 +10881,8 @@
           <t>4288212180</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:57:09</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44274.87302083334</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11220,10 +10946,8 @@
           <t>4287743459</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:53:33</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44274.87052083333</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11294,10 +11018,8 @@
           <t>4288212180</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:53:24</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44274.87041666666</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11361,10 +11083,8 @@
           <t>4288026637</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:52:32</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44274.86981481482</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11440,10 +11160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:52:31</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44274.86980324074</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11507,10 +11225,8 @@
           <t>4287995203</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:51:10</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44274.86886574074</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11586,10 +11302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:50:23</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44274.86832175926</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11665,10 +11379,8 @@
           <t>4288212180</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:50:20</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44274.86828703704</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11732,10 +11444,8 @@
           <t>4288235833</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:48:40</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44274.86712962963</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11803,10 +11513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:47:50</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44274.86655092592</v>
       </c>
       <c r="I155" t="n">
         <v>36</v>
@@ -11878,10 +11586,8 @@
           <t>4288212180</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:47:28</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44274.8662962963</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11957,10 +11663,8 @@
           <t>4288212180</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:43:42</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44274.86368055556</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12024,10 +11728,8 @@
           <t>4288204207</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:42:35</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44274.8629050926</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -12095,10 +11797,8 @@
           <t>4287692855</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:39:29</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44274.86075231482</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12176,10 +11876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:36:52</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44274.85893518518</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12251,10 +11949,8 @@
           <t>4288163671</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:35:12</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44274.85777777778</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12322,10 +12018,8 @@
           <t>4288153683</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:32:51</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44274.85614583334</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12401,10 +12095,8 @@
           <t>4288149408</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:32:33</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44274.8559375</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12490,10 +12182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:32:04</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44274.85560185185</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12561,10 +12251,8 @@
           <t>4288139363</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:30:20</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44274.85439814815</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12640,10 +12328,8 @@
           <t>4287667760</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:28:28</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44274.85310185186</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12711,10 +12397,8 @@
           <t>4288130984</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:27:26</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44274.85238425926</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12790,10 +12474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:24:09</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44274.85010416667</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12880,10 +12562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:24:02</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44274.85002314814</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12951,10 +12631,8 @@
           <t>4288087995</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:19:25</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44274.84681712963</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13032,10 +12710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:19:22</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44274.84678240741</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13107,10 +12783,8 @@
           <t>4288095403</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:19:12</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44274.84666666666</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13186,10 +12860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:18:30</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44274.84618055556</v>
       </c>
       <c r="I173" t="n">
         <v>6</v>
@@ -13249,10 +12921,8 @@
           <t>4288077026</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:17:06</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44274.84520833333</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13324,10 +12994,8 @@
           <t>4288081483</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:16:56</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44274.84509259259</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13399,10 +13067,8 @@
           <t>4287829576</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:16:35</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44274.84484953704</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13474,10 +13140,8 @@
           <t>4288080358</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:16:16</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44274.84462962963</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13545,10 +13209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:14:41</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44274.84353009259</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13616,10 +13278,8 @@
           <t>4288044449</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:11:11</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44274.84109953704</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13695,10 +13355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:08:42</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44274.839375</v>
       </c>
       <c r="I180" t="n">
         <v>15</v>
@@ -13774,10 +13432,8 @@
           <t>4288026637</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:06:29</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44274.83783564815</v>
       </c>
       <c r="I181" t="n">
         <v>2</v>
@@ -13841,10 +13497,8 @@
           <t>4288023177</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:06:27</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44274.8378125</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13920,10 +13574,8 @@
           <t>4287587234</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:05:23</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44274.83707175926</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13995,10 +13647,8 @@
           <t>4288003903</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:03:33</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44274.83579861111</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -14074,10 +13724,8 @@
           <t>4287996582</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:00:51</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44274.83392361111</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -14153,10 +13801,8 @@
           <t>4287995203</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-19 20:00:03</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44274.83336805556</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14232,10 +13878,8 @@
           <t>4287995008</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:59:56</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44274.83328703704</v>
       </c>
       <c r="I187" t="n">
         <v>2</v>
@@ -14303,10 +13947,8 @@
           <t>4287984825</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:59:49</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44274.83320601852</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14382,10 +14024,8 @@
           <t>4287872652</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:59:00</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44274.83263888889</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14449,10 +14089,8 @@
           <t>4287983409</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:58:59</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44274.83262731481</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14528,10 +14166,8 @@
           <t>4287981996</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:58:07</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44274.83202546297</v>
       </c>
       <c r="I191" t="n">
         <v>9</v>
@@ -14603,10 +14239,8 @@
           <t>4287973765</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:57:41</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44274.83172453703</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14678,10 +14312,8 @@
           <t>4287975512</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:56:43</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44274.83105324074</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14753,10 +14385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:56:33</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44274.8309375</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14828,10 +14458,8 @@
           <t>4287926772</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:55:45</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44274.83038194444</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14899,10 +14527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:55:32</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44274.83023148148</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14978,10 +14604,8 @@
           <t>4287963368</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:55:32</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44274.83023148148</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -15045,10 +14669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:54:50</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44274.82974537037</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15120,10 +14742,8 @@
           <t>4287948761</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:52:57</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44274.8284375</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15195,10 +14815,8 @@
           <t>4287934006</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:52:47</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44274.82832175926</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15270,10 +14888,8 @@
           <t>4287842221</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:51:31</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44274.82744212963</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15345,10 +14961,8 @@
           <t>4287587234</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:51:29</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44274.82741898148</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15424,10 +15038,8 @@
           <t>4287790584</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:50:58</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44274.82706018518</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15499,10 +15111,8 @@
           <t>4287766204</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:50:38</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44274.82682870371</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15574,10 +15184,8 @@
           <t>4287934006</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:50:23</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44274.82665509259</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15641,10 +15249,8 @@
           <t>4287740914</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:50:15</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44274.8265625</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15726,10 +15332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:49:38</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44274.82613425926</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15805,10 +15409,8 @@
           <t>4287926772</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:48:39</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44274.82545138889</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15872,10 +15474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:47:58</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44274.82497685185</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15951,10 +15551,8 @@
           <t>4287926772</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:47:38</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44274.82474537037</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -16022,10 +15620,8 @@
           <t>4287922180</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:46:34</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44274.82400462963</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -16093,10 +15689,8 @@
           <t>4287921968</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:46:26</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44274.82391203703</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16172,10 +15766,8 @@
           <t>4287916272</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:45:50</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44274.82349537037</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16239,10 +15831,8 @@
           <t>4287913541</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:45:45</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44274.8234375</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16314,10 +15904,8 @@
           <t>4287852108</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:45:30</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44274.82326388889</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16381,10 +15969,8 @@
           <t>4287882979</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:44:19</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44274.82244212963</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16460,10 +16046,8 @@
           <t>4287910510</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:43:55</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44274.82216435186</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16528,10 +16112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:43:19</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44274.82174768519</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16603,10 +16185,8 @@
           <t>4287899277</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:43:11</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44274.82165509259</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16670,10 +16250,8 @@
           <t>4287889672</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:42:02</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44274.82085648148</v>
       </c>
       <c r="I220" t="n">
         <v>23</v>
@@ -16741,10 +16319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:41:55</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44274.82077546296</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16819,10 +16395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:40:03</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44274.81947916667</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16894,10 +16468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:40:00</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44274.81944444445</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16973,10 +16545,8 @@
           <t>4287852108</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:39:28</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44274.81907407408</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -17048,10 +16618,8 @@
           <t>4287882979</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:39:27</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44274.8190625</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -17123,10 +16691,8 @@
           <t>4287878979</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:39:11</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44274.81887731481</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17194,10 +16760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:38:48</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44274.81861111111</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17269,10 +16833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:38:41</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44274.81853009259</v>
       </c>
       <c r="I228" t="n">
         <v>195</v>
@@ -17348,10 +16910,8 @@
           <t>4287873060</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:38:09</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44274.81815972222</v>
       </c>
       <c r="I229" t="n">
         <v>2</v>
@@ -17428,10 +16988,8 @@
           <t>4287872652</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:37:55</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44274.81799768518</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
@@ -17503,10 +17061,8 @@
           <t>4287872360</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:37:45</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44274.81788194444</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17582,10 +17138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:37:35</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44274.81776620371</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17653,10 +17207,8 @@
           <t>4287565425</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:37:15</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44274.81753472222</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17733,10 +17285,8 @@
           <t>4287871346</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:37:10</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44274.81747685185</v>
       </c>
       <c r="I234" t="n">
         <v>4</v>
@@ -17804,10 +17354,8 @@
           <t>4287870988</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:36:57</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44274.81732638889</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17883,10 +17431,8 @@
           <t>4287867837</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:36:26</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44274.81696759259</v>
       </c>
       <c r="I236" t="n">
         <v>4</v>
@@ -17950,10 +17496,8 @@
           <t>4287859783</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:36:16</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44274.81685185185</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -18017,10 +17561,8 @@
           <t>4287863318</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:36:03</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44274.81670138889</v>
       </c>
       <c r="I238" t="n">
         <v>3</v>
@@ -18096,10 +17638,8 @@
           <t>4287861658</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:35:05</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44274.8160300926</v>
       </c>
       <c r="I239" t="n">
         <v>4</v>
@@ -18175,10 +17715,8 @@
           <t>4287588324</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:34:52</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44274.81587962963</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18254,10 +17792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:34:37</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44274.81570601852</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -18333,10 +17869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:34:31</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44274.81563657407</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18408,10 +17942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:33:52</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44274.81518518519</v>
       </c>
       <c r="I243" t="n">
         <v>3</v>
@@ -18497,10 +18029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:33:41</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44274.81505787037</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18560,10 +18090,8 @@
           <t>4287849185</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:33:41</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44274.81505787037</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18639,10 +18167,8 @@
           <t>4287852178</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:33:03</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44274.81461805556</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18714,10 +18240,8 @@
           <t>4287852108</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:33:00</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44274.81458333333</v>
       </c>
       <c r="I247" t="n">
         <v>16</v>
@@ -18789,10 +18313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:32:48</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44274.81444444445</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18864,10 +18386,8 @@
           <t>4287766204</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:32:47</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44274.81443287037</v>
       </c>
       <c r="I249" t="n">
         <v>2</v>
@@ -18943,10 +18463,8 @@
           <t>4287842221</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:31:44</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44274.8137037037</v>
       </c>
       <c r="I250" t="n">
         <v>2</v>
@@ -19022,10 +18540,8 @@
           <t>4287840150</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:30:34</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44274.81289351852</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -19101,10 +18617,8 @@
           <t>4287829576</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:30:14</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44274.81266203704</v>
       </c>
       <c r="I252" t="n">
         <v>5</v>
@@ -19176,10 +18690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:30:00</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44274.8125</v>
       </c>
       <c r="I253" t="n">
         <v>6</v>
@@ -19265,10 +18777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:29:31</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44274.81216435185</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19332,10 +18842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:28:15</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44274.81128472222</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19403,10 +18911,8 @@
           <t>4287588324</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:27:57</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44274.81107638889</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19474,10 +18980,8 @@
           <t>4287587234</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:27:26</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44274.81071759259</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19549,10 +19053,8 @@
           <t>4287814554</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:27:12</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44274.81055555555</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19634,10 +19136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:25:44</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44274.80953703704</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19701,10 +19201,8 @@
           <t>4287565425</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:25:23</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44274.80929398148</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19764,10 +19262,8 @@
           <t>4287588324</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:24:54</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44274.80895833333</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -19835,10 +19331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:24:48</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44274.80888888889</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19914,10 +19408,8 @@
           <t>4287766204</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:24:41</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44274.80880787037</v>
       </c>
       <c r="I263" t="n">
         <v>3</v>
@@ -19977,10 +19469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:24:20</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44274.80856481481</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -20048,10 +19538,8 @@
           <t>4287802700</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:24:14</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44274.80849537037</v>
       </c>
       <c r="I265" t="n">
         <v>8</v>
@@ -20127,10 +19615,8 @@
           <t>4287802224</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:23:58</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44274.80831018519</v>
       </c>
       <c r="I266" t="n">
         <v>2</v>
@@ -20198,10 +19684,8 @@
           <t>4287805253</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:23:01</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44274.80765046296</v>
       </c>
       <c r="I267" t="n">
         <v>6</v>
@@ -20273,10 +19757,8 @@
           <t>4287794519</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:22:30</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44274.80729166666</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20344,10 +19826,8 @@
           <t>4287743459</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:22:27</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44274.80725694444</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20419,10 +19899,8 @@
           <t>4287784661</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:21:28</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44274.80657407407</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20498,10 +19976,8 @@
           <t>4287565425</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:20:55</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44274.80619212963</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20578,10 +20054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:20:54</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44274.80618055556</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20653,10 +20127,8 @@
           <t>4287791492</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:20:49</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44274.80612268519</v>
       </c>
       <c r="I273" t="n">
         <v>17</v>
@@ -20728,10 +20200,8 @@
           <t>4287565425</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:20:23</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44274.80582175926</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20808,10 +20278,8 @@
           <t>4287782687</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:20:22</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44274.80581018519</v>
       </c>
       <c r="I275" t="n">
         <v>3</v>
@@ -20887,10 +20355,8 @@
           <t>4287790584</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:20:19</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44274.80577546296</v>
       </c>
       <c r="I276" t="n">
         <v>3</v>
@@ -20966,10 +20432,8 @@
           <t>4287719748</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:19:43</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44274.80535879629</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -21037,10 +20501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:19:00</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44274.80486111111</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -21116,10 +20578,8 @@
           <t>4287562049</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:18:13</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44274.80431712963</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -21183,10 +20643,8 @@
           <t>4287565425</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:17:52</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44274.80407407408</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21250,10 +20708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:17:51</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44274.8040625</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21317,10 +20773,8 @@
           <t>4287562049</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:17:16</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44274.80365740741</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21385,10 +20839,8 @@
           <t>4287587234</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:16:46</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44274.80331018518</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21464,10 +20916,8 @@
           <t>4287766204</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:16:42</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44274.80326388889</v>
       </c>
       <c r="I284" t="n">
         <v>3</v>
@@ -21543,10 +20993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:16:26</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44274.80307870371</v>
       </c>
       <c r="I285" t="n">
         <v>28</v>
@@ -21614,10 +21062,8 @@
           <t>4287588324</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:16:07</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44274.8028587963</v>
       </c>
       <c r="I286" t="n">
         <v>7</v>
@@ -21685,10 +21131,8 @@
           <t>4287762150</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:15:45</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44274.80260416667</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21752,10 +21196,8 @@
           <t>4287692855</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:14:46</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44274.8019212963</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21827,10 +21269,8 @@
           <t>4287588324</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:13:51</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44274.80128472222</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21898,10 +21338,8 @@
           <t>4287588324</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:13:18</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44274.80090277778</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21977,10 +21415,8 @@
           <t>4287743459</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:13:16</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44274.80087962963</v>
       </c>
       <c r="I291" t="n">
         <v>3</v>
@@ -22056,10 +21492,8 @@
           <t>4287742114</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:12:29</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44274.80033564815</v>
       </c>
       <c r="I292" t="n">
         <v>26</v>
@@ -22129,10 +21563,8 @@
           <t>4287740914</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:11:48</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44274.79986111111</v>
       </c>
       <c r="I293" t="n">
         <v>17</v>
@@ -22204,10 +21636,8 @@
           <t>4287737076</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:11:24</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44274.79958333333</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -22271,10 +21701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:11:12</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44274.79944444444</v>
       </c>
       <c r="I295" t="n">
         <v>39</v>
@@ -22342,10 +21770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:10:41</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44274.79908564815</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22421,10 +21847,8 @@
           <t>4287732633</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:10:30</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44274.79895833333</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22496,10 +21920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:10:29</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44274.79894675926</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22563,10 +21985,8 @@
           <t>4287719748</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:08:55</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44274.79785879629</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22638,10 +22058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:08:42</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44274.79770833333</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22718,10 +22136,8 @@
           <t>4287714727</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:08:12</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44274.79736111111</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22789,10 +22205,8 @@
           <t>4287579998</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:07:56</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44274.79717592592</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22864,10 +22278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:07:31</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44274.79688657408</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22931,10 +22343,8 @@
           <t>4287712930</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:07:09</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44274.79663194445</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -23002,10 +22412,8 @@
           <t>4287712286</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:06:46</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44274.79636574074</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -23065,10 +22473,8 @@
           <t>4287715146</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:06:21</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44274.79607638889</v>
       </c>
       <c r="I306" t="n">
         <v>11</v>
@@ -23144,10 +22550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:06:02</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44274.79585648148</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23224,10 +22628,8 @@
           <t>4287703564</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:05:30</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44274.79548611111</v>
       </c>
       <c r="I308" t="n">
         <v>22</v>
@@ -23299,10 +22701,8 @@
           <t>4287702328</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:04:50</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44274.79502314814</v>
       </c>
       <c r="I309" t="n">
         <v>4</v>
@@ -23374,10 +22774,8 @@
           <t>4287693622</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:03:35</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44274.79415509259</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23449,10 +22847,8 @@
           <t>4287692855</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:03:08</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44274.79384259259</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -23524,10 +22920,8 @@
           <t>4287614238</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:02:37</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44274.7934837963</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23603,10 +22997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:02:32</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44274.79342592593</v>
       </c>
       <c r="I313" t="n">
         <v>128</v>
@@ -23681,10 +23073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:02:28</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44274.79337962963</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23752,10 +23142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:02:02</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44274.7930787037</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23819,10 +23207,8 @@
           <t>4287683805</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:02:00</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44274.79305555556</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23894,10 +23280,8 @@
           <t>4287674752</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:00:52</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44274.79226851852</v>
       </c>
       <c r="I317" t="n">
         <v>16</v>
@@ -23966,10 +23350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:00:34</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44274.79206018519</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -24042,10 +23424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:00:26</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44274.7919675926</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -24121,10 +23501,8 @@
           <t>4287671958</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:59:24</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44274.79125</v>
       </c>
       <c r="I320" t="n">
         <v>21</v>
@@ -24192,10 +23570,8 @@
           <t>4287675801</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:59:11</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44274.79109953704</v>
       </c>
       <c r="I321" t="n">
         <v>3</v>
@@ -24277,10 +23653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:59:00</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44274.79097222222</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24352,10 +23726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:58:40</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44274.79074074074</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24419,10 +23791,8 @@
           <t>4287667760</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:58:40</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44274.79074074074</v>
       </c>
       <c r="I324" t="n">
         <v>30</v>
@@ -24482,10 +23852,8 @@
           <t>4287662975</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:57:33</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44274.78996527778</v>
       </c>
       <c r="I325" t="n">
         <v>45</v>
@@ -24563,10 +23931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:57:15</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44274.78975694445</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24638,10 +24004,8 @@
           <t>4287658013</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:57:12</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44274.78972222222</v>
       </c>
       <c r="I327" t="n">
         <v>7</v>
@@ -24705,10 +24069,8 @@
           <t>4287588324</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:56:48</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44274.78944444445</v>
       </c>
       <c r="I328" t="n">
         <v>11</v>
@@ -24784,10 +24146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:56:47</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44274.78943287037</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24863,10 +24223,8 @@
           <t>4287655630</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:55:57</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44274.78885416667</v>
       </c>
       <c r="I330" t="n">
         <v>10</v>
@@ -24934,10 +24292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:55:44</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44274.78870370371</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24997,10 +24353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:55:36</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44274.78861111111</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -25076,10 +24430,8 @@
           <t>4287652068</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:55:23</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44274.78846064815</v>
       </c>
       <c r="I333" t="n">
         <v>1</v>
@@ -25143,10 +24495,8 @@
           <t>4287614238</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:55:21</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44274.7884375</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -25222,10 +24572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:55:04</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44274.78824074074</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25297,10 +24645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:54:50</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44274.78807870371</v>
       </c>
       <c r="I336" t="n">
         <v>10</v>
@@ -25372,10 +24718,8 @@
           <t>4287643437</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:54:44</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44274.78800925926</v>
       </c>
       <c r="I337" t="n">
         <v>3</v>
@@ -25451,10 +24795,8 @@
           <t>4287646491</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:53:47</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44274.78734953704</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -25526,10 +24868,8 @@
           <t>4287641289</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:53:33</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44274.7871875</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25605,10 +24945,8 @@
           <t>4287645765</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:53:22</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44274.78706018518</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25680,10 +25018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:53:19</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44274.78702546296</v>
       </c>
       <c r="I341" t="n">
         <v>470</v>
@@ -25755,10 +25091,8 @@
           <t>4287628705</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:52:09</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44274.78621527777</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25834,10 +25168,8 @@
           <t>4287627506</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:51:28</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44274.78574074074</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25901,10 +25233,8 @@
           <t>4287624571</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:51:07</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44274.78549768519</v>
       </c>
       <c r="I344" t="n">
         <v>2</v>
@@ -25972,10 +25302,8 @@
           <t>4287625009</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:50:02</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44274.78474537037</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -26039,10 +25367,8 @@
           <t>4287614238</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:49:36</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44274.78444444444</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -26120,10 +25446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:49:27</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44274.78434027778</v>
       </c>
       <c r="I347" t="n">
         <v>1088</v>
@@ -26195,10 +25519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:49:01</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44274.78403935185</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26262,10 +25584,8 @@
           <t>4287611794</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:48:13</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44274.78348379629</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26329,10 +25649,8 @@
           <t>4287616278</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:48:12</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44274.78347222223</v>
       </c>
       <c r="I350" t="n">
         <v>17</v>
@@ -26410,10 +25728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:47:51</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44274.78322916666</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26473,10 +25789,8 @@
           <t>4287610917</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:47:42</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44274.783125</v>
       </c>
       <c r="I352" t="n">
         <v>4</v>
@@ -26544,10 +25858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:47:29</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44274.78297453704</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26615,10 +25927,8 @@
           <t>4287607154</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:47:00</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44274.78263888889</v>
       </c>
       <c r="I354" t="n">
         <v>3</v>
@@ -26703,10 +26013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:46:01</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44274.78195601852</v>
       </c>
       <c r="I355" t="n">
         <v>159</v>
@@ -26770,10 +26078,8 @@
           <t>4287600851</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:45:19</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44274.78146990741</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26853,10 +26159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:45:04</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44274.7812962963</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26920,10 +26224,8 @@
           <t>4287579998</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:44:29</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44274.78089120371</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26999,10 +26301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:44:26</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44274.78085648148</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -27066,10 +26366,8 @@
           <t>4287588324</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:43:59</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44274.78054398148</v>
       </c>
       <c r="I360" t="n">
         <v>136</v>
@@ -27145,10 +26443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:43:32</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44274.78023148148</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -27224,10 +26520,8 @@
           <t>4287587234</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:43:23</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44274.78012731481</v>
       </c>
       <c r="I362" t="n">
         <v>11</v>
@@ -27299,10 +26593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:42:57</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44274.77982638889</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27366,10 +26658,8 @@
           <t>4287579998</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:42:57</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44274.77982638889</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27445,10 +26735,8 @@
           <t>4287565425</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:42:42</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44274.77965277778</v>
       </c>
       <c r="I365" t="n">
         <v>8</v>
@@ -27525,10 +26813,8 @@
           <t>4287585961</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:42:42</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44274.77965277778</v>
       </c>
       <c r="I366" t="n">
         <v>6</v>
@@ -27592,10 +26878,8 @@
           <t>4287579160</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:42:29</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44274.77950231481</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27663,10 +26947,8 @@
           <t>4287565423</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:41:49</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44274.77903935185</v>
       </c>
       <c r="I368" t="n">
         <v>5</v>
@@ -27738,10 +27020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:41:34</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44274.77886574074</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27817,10 +27097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:41:22</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44274.77872685185</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27893,10 +27171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:41:15</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44274.77864583334</v>
       </c>
       <c r="I371" t="n">
         <v>2</v>
@@ -27968,10 +27244,8 @@
           <t>4287569025</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:40:54</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44274.77840277777</v>
       </c>
       <c r="I372" t="n">
         <v>3</v>
@@ -28043,10 +27317,8 @@
           <t>4287567468</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:40:04</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44274.77782407407</v>
       </c>
       <c r="I373" t="n">
         <v>4</v>
@@ -28122,10 +27394,8 @@
           <t>4287562049</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:39:43</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44274.77758101852</v>
       </c>
       <c r="I374" t="n">
         <v>7</v>
@@ -28212,10 +27482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:39:07</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44274.77716435185</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -28287,10 +27555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:39:02</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44274.77710648148</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28358,10 +27624,8 @@
           <t>4287565425</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:38:55</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44274.77702546296</v>
       </c>
       <c r="I377" t="n">
         <v>3</v>
@@ -28435,10 +27699,8 @@
           <t>4287565423</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:38:55</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44274.77702546296</v>
       </c>
       <c r="I378" t="n">
         <v>16</v>
@@ -28514,10 +27776,8 @@
           <t>4287537166</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:38:50</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44274.7769675926</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28593,10 +27853,8 @@
           <t>4287562049</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:38:28</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44274.77671296296</v>
       </c>
       <c r="I380" t="n">
         <v>24</v>
@@ -28664,10 +27922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:38:17</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44274.77658564815</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28739,10 +27995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:38:11</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44274.7765162037</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -28819,10 +28073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:37:33</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44274.77607638889</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28894,10 +28146,8 @@
           <t>4287537166</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:36:48</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44274.77555555556</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28969,10 +28219,8 @@
           <t>4287537166</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:36:29</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44274.77533564815</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -29044,10 +28292,8 @@
           <t>4287544357</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:36:28</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44274.77532407407</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -29115,10 +28361,8 @@
           <t>4287537166</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:35:55</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44274.77494212963</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -29194,10 +28438,8 @@
           <t>4287537166</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:35:42</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44274.77479166666</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -29273,10 +28515,8 @@
           <t>4287529418</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:35:38</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44274.77474537037</v>
       </c>
       <c r="I389" t="n">
         <v>5</v>
@@ -29352,10 +28592,8 @@
           <t>4287539521</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:35:37</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44274.77473379629</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29419,10 +28657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:35:24</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44274.77458333333</v>
       </c>
       <c r="I391" t="n">
         <v>400</v>
@@ -29499,10 +28735,8 @@
           <t>4287539093</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:35:23</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44274.77457175926</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29570,10 +28804,8 @@
           <t>4287538881</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:35:16</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44274.77449074074</v>
       </c>
       <c r="I393" t="n">
         <v>25</v>
@@ -29645,10 +28877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:34:57</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44274.77427083333</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29716,10 +28946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:34:36</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44274.77402777778</v>
       </c>
       <c r="I395" t="n">
         <v>88</v>
@@ -29795,10 +29023,8 @@
           <t>4287537166</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:34:19</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44274.77383101852</v>
       </c>
       <c r="I396" t="n">
         <v>5</v>
@@ -29874,10 +29100,8 @@
           <t>4287529418</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:33:53</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44274.77353009259</v>
       </c>
       <c r="I397" t="n">
         <v>2</v>
@@ -29945,10 +29169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:33:43</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44274.77341435185</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -30016,10 +29238,8 @@
           <t>4287529109</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:33:43</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44274.77341435185</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -30095,10 +29315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:33:41</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44274.7733912037</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -30174,10 +29392,8 @@
           <t>4287528054</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:33:09</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44274.77302083333</v>
       </c>
       <c r="I401" t="n">
         <v>2</v>
@@ -30253,10 +29469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:32:56</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44274.77287037037</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -30324,10 +29538,8 @@
           <t>4287531956</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:32:47</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44274.77276620371</v>
       </c>
       <c r="I403" t="n">
         <v>2</v>
@@ -30397,10 +29609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:32:23</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44274.77248842592</v>
       </c>
       <c r="I404" t="n">
         <v>3</v>
@@ -30472,10 +29682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:31:46</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44274.77206018518</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30539,10 +29747,8 @@
           <t>4287518565</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:30:50</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44274.77141203704</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30614,10 +29820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:30:38</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44274.77127314815</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30689,10 +29893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:29:44</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44274.77064814815</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30764,10 +29966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:29:18</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44274.77034722222</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30843,10 +30043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:29:12</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44274.77027777778</v>
       </c>
       <c r="I410" t="n">
         <v>17</v>
@@ -30918,10 +30116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:28:51</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44274.77003472222</v>
       </c>
       <c r="I411" t="n">
         <v>2035</v>
@@ -30989,10 +30185,8 @@
           <t>4287498381</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:28:25</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44274.7697337963</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -31060,10 +30254,8 @@
           <t>4287506570</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:28:25</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44274.7697337963</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -31139,10 +30331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:28:16</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44274.76962962963</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -31210,10 +30400,8 @@
           <t>4287498381</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:27:59</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44274.76943287037</v>
       </c>
       <c r="I415" t="n">
         <v>3</v>
@@ -31285,10 +30473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:27:56</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44274.76939814815</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -31356,10 +30542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:26:58</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44274.76872685185</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31435,10 +30619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:26:50</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44274.76863425926</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31510,10 +30692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:26:35</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44274.76846064815</v>
       </c>
       <c r="I419" t="n">
         <v>295</v>
@@ -31589,10 +30769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:26:33</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44274.7684375</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31660,10 +30838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:26:18</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44274.76826388889</v>
       </c>
       <c r="I421" t="n">
         <v>26</v>
@@ -31727,10 +30903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:25:53</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44274.76797453704</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31806,10 +30980,8 @@
           <t>4287484132</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:25:40</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44274.76782407407</v>
       </c>
       <c r="I423" t="n">
         <v>2</v>
@@ -31885,10 +31057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:25:34</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44274.76775462963</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31964,10 +31134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:25:33</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44274.76774305556</v>
       </c>
       <c r="I425" t="n">
         <v>7</v>
@@ -32031,10 +31199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:25:31</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44274.76771990741</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -32110,10 +31276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:25:27</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44274.76767361111</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -32185,10 +31349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:25:14</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44274.76752314815</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -32264,10 +31426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:25:03</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44274.76739583333</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -32335,10 +31495,8 @@
           <t>4287487186</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:24:47</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44274.76721064815</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -32414,10 +31572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:24:45</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44274.7671875</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -32487,10 +31643,8 @@
           <t>4287482328</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:24:39</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44274.76711805556</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32554,10 +31708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:24:31</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44274.76702546296</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32640,10 +31792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:24:22</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44274.76692129629</v>
       </c>
       <c r="I434" t="n">
         <v>10</v>
@@ -32722,10 +31872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:24:05</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44274.76672453704</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32789,10 +31937,8 @@
           <t>4287477102</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:24:03</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44274.76670138889</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32864,10 +32010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:23:23</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44274.76623842592</v>
       </c>
       <c r="I437" t="n">
         <v>25</v>
@@ -32927,10 +32071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:23:07</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44274.76605324074</v>
       </c>
       <c r="I438" t="n">
         <v>13</v>
@@ -33002,10 +32144,8 @@
           <t>4287477102</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:23:05</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44274.76603009259</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -33081,10 +32221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:23:00</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44274.76597222222</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -33164,10 +32302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:22:15</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44274.76545138889</v>
       </c>
       <c r="I441" t="n">
         <v>517</v>
@@ -33235,10 +32371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:21:59</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44274.76526620371</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -33315,10 +32449,8 @@
           <t>4287475135</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:21:56</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44274.76523148148</v>
       </c>
       <c r="I443" t="n">
         <v>4</v>
@@ -33396,10 +32528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:21:51</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44274.76517361111</v>
       </c>
       <c r="I444" t="n">
         <v>5</v>
@@ -33468,10 +32598,8 @@
           <t>4287464937</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:21:49</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44274.76515046296</v>
       </c>
       <c r="I445" t="n">
         <v>4</v>
@@ -33537,10 +32665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:21:40</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44274.7650462963</v>
       </c>
       <c r="I446" t="n">
         <v>104</v>
@@ -33616,10 +32742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:21:38</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44274.76502314815</v>
       </c>
       <c r="I447" t="n">
         <v>58</v>
@@ -33687,10 +32811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:21:28</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44274.76490740741</v>
       </c>
       <c r="I448" t="n">
         <v>16</v>
@@ -33766,10 +32888,8 @@
           <t>4287466622</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:21:27</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44274.76489583333</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33841,10 +32961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:21:26</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44274.76488425926</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33916,10 +33034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:21:14</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44274.76474537037</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33996,10 +33112,8 @@
           <t>4287466031</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:21:07</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44274.76466435185</v>
       </c>
       <c r="I452" t="n">
         <v>8</v>
@@ -34059,10 +33173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:20:58</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44274.76456018518</v>
       </c>
       <c r="I453" t="n">
         <v>1</v>
@@ -34138,10 +33250,8 @@
           <t>4287465778</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:20:58</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44274.76456018518</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -34217,10 +33327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:20:50</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44274.76446759259</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -34292,10 +33400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:20:40</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44274.76435185185</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -34372,10 +33478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:20:31</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44274.76424768518</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -34451,10 +33555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:20:30</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44274.76423611111</v>
       </c>
       <c r="I458" t="n">
         <v>77</v>
@@ -34522,10 +33624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:20:20</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44274.76412037037</v>
       </c>
       <c r="I459" t="n">
         <v>8</v>
@@ -34597,10 +33697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:20:07</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44274.76396990741</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -34668,10 +33766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:20:06</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44274.76395833334</v>
       </c>
       <c r="I461" t="n">
         <v>185</v>
@@ -34739,10 +33835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:20:04</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44274.76393518518</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34806,10 +33900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:19:50</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44274.76377314814</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -34885,10 +33977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:19:46</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44274.76372685185</v>
       </c>
       <c r="I464" t="n">
         <v>80</v>
@@ -34957,10 +34047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:19:29</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44274.76353009259</v>
       </c>
       <c r="I465" t="n">
         <v>17</v>
@@ -35036,10 +34124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:19:21</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44274.7634375</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -35107,10 +34193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:19:09</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44274.76329861111</v>
       </c>
       <c r="I467" t="n">
         <v>66</v>
@@ -35182,10 +34266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:18:59</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44274.76318287037</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -35249,10 +34331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:18:48</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44274.76305555556</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -35316,10 +34396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:18:44</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44274.76300925926</v>
       </c>
       <c r="I470" t="n">
         <v>8</v>
@@ -35383,10 +34461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:18:42</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44274.76298611111</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35450,10 +34526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:18:36</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44274.76291666667</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -35529,10 +34603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:18:35</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44274.76290509259</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35600,10 +34672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:18:32</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44274.76287037037</v>
       </c>
       <c r="I474" t="n">
         <v>2</v>
@@ -35667,10 +34737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:18:24</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44274.76277777777</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35742,10 +34810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:18:21</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44274.76274305556</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35817,10 +34883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:18:12</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44274.76263888889</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -35884,10 +34948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:18:07</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44274.76258101852</v>
       </c>
       <c r="I478" t="n">
         <v>5</v>
@@ -35959,10 +35021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:17:48</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44274.76236111111</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -36026,10 +35086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:17:40</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44274.76226851852</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -36101,10 +35159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:17:40</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44274.76226851852</v>
       </c>
       <c r="I481" t="n">
         <v>4</v>
@@ -36177,10 +35233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:17:37</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44274.7622337963</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -36256,10 +35310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:17:37</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44274.7622337963</v>
       </c>
       <c r="I483" t="n">
         <v>5</v>
@@ -36335,10 +35387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:17:34</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44274.76219907407</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -36402,10 +35452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:17:33</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44274.7621875</v>
       </c>
       <c r="I485" t="n">
         <v>1</v>
@@ -36481,10 +35529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:17:31</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44274.76216435185</v>
       </c>
       <c r="I486" t="n">
         <v>1</v>
@@ -36548,10 +35594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:17:30</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44274.76215277778</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
